--- a/data/raw/2017.xlsx
+++ b/data/raw/2017.xlsx
@@ -3233,11 +3233,11 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="41787355"/>
-        <c:axId val="91771553"/>
+        <c:axId val="81425650"/>
+        <c:axId val="61001070"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41787355"/>
+        <c:axId val="81425650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3291,7 +3291,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91771553"/>
+        <c:crossAx val="61001070"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3299,7 +3299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91771553"/>
+        <c:axId val="61001070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3334,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41787355"/>
+        <c:crossAx val="81425650"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3392,9 +3392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>513360</xdr:colOff>
+      <xdr:colOff>513000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3403,7 +3403,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11196000" y="380880"/>
-        <a:ext cx="3312000" cy="2047320"/>
+        <a:ext cx="3311640" cy="2046960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3422,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>529920</xdr:colOff>
+      <xdr:colOff>529560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3433,7 +3433,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11224800" y="1952280"/>
-        <a:ext cx="4073040" cy="2523240"/>
+        <a:ext cx="4072680" cy="2522880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3447,17 +3447,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.7"/>
@@ -13273,7 +13273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -13283,7 +13283,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.7"/>
@@ -16446,7 +16446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -16456,7 +16456,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.7"/>
@@ -19700,7 +19700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -19710,7 +19710,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.7"/>
@@ -22750,7 +22750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -22760,7 +22760,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45"/>
   </cols>
@@ -24490,7 +24490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -24500,7 +24500,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
